--- a/Cenários de teste - Formulário.xlsx
+++ b/Cenários de teste - Formulário.xlsx
@@ -22,7 +22,7 @@
     <t>BDD</t>
   </si>
   <si>
-    <t>1 - LOGIN</t>
+    <t>1 - FORMULÁRIO</t>
   </si>
   <si>
     <t>CT1.01 - Campo name com dados válidos</t>
@@ -180,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -200,11 +200,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +221,12 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -224,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -232,10 +242,15 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -454,6 +469,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="15.5"/>
     <col customWidth="1" min="2" max="2" width="53.0"/>
     <col customWidth="1" min="3" max="3" width="51.13"/>
   </cols>
@@ -473,10 +489,10 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -484,10 +500,10 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -495,175 +511,175 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
     </row>
